--- a/data/process_05/inputData.xlsx
+++ b/data/process_05/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Document Type</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Pricing Unit</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -427,7 +430,7 @@
     <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +476,11 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -519,6 +525,9 @@
       </c>
       <c r="O2" t="s">
         <v>17</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_05/inputData.xlsx
+++ b/data/process_05/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Document Type</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Pricing Unit</t>
+  </si>
+  <si>
+    <t>Custom Ref</t>
+  </si>
+  <si>
+    <t>Test5</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -430,7 +436,7 @@
     <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +485,11 @@
       <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -528,6 +537,9 @@
       </c>
       <c r="P2">
         <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_05/inputData.xlsx
+++ b/data/process_05/inputData.xlsx
@@ -84,7 +84,7 @@
     <t>Custom Ref</t>
   </si>
   <si>
-    <t>Test5</t>
+    <t>Test10</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/data/process_05/inputData.xlsx
+++ b/data/process_05/inputData.xlsx
@@ -84,7 +84,7 @@
     <t>Custom Ref</t>
   </si>
   <si>
-    <t>Test10</t>
+    <t>Test17</t>
   </si>
 </sst>
 </file>
